--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_231.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_231.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3229166666666666</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>jaah_83</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07735191637630662</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G', 'G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(122.78, 141.245)]</t>
+          <t>[['F', 'F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(129.38, 135.34)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:07.550000', '0:00:11.630000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.590000', '0:00:07.770000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3025210084033613</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_60</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08363903154805576</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.980790', '0:00:05.421882')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:44.310045', '0:00:50.196303')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2976190476190476</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(96.9, 102.46), (42.94, 51.08)]</t>
+          <t>[['Bb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(103.66, 110.88), (140.48, 145.98)]</t>
+          <t>[('0:00:04.605000', '0:00:13.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:26.041712', '0:00:37.106020')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3142857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[('0:00:42.080000', '0:00:57.880000'), ('0:01:58.400000', '0:02:01.720000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.101853344077357</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab', 'Ab', 'Eb:7', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab', 'Ab', 'Eb:7', 'Eb:7']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(35.66, 43.99)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(22.77, 31.75)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:36.760000', '0:01:43.240000'), ('0:02:09.060000', '0:02:14.200000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:29.740000', '0:01:36.120000'), ('0:00:39.040000', '0:00:46.100000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08172043010752689</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D', 'D/5', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'G']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.10678)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(19.616133, 25.815861)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E/4']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(48.277, 54.481)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.96, 10.8)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
-        </is>
+          <t>isophonics_288</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
+          <t>[['A', 'E', 'B'], ['B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(58.08, 79.12)]</t>
+          <t>[['C', 'G', 'D'], ['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(60.76, 82.8)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:03.071405', '0:00:11.233219'), ('0:00:30.424512', '0:00:35.962471')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:03.117845', '0:00:14.158934'), ('0:00:11.337709', '0:00:19.847823')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07280701754385965</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E/3', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.508294, 17.444076)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.142662, 9.133411)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1916666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(50.461714, 57.636679)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.743, 17.058)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(262.92, 266.9), (261.68, 264.16)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.24, 18.88), (6.62, 12.78)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(29.02, 40.82)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.18, 48.16)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.8, 19.04)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.16, 15.08)]</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_124</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(48.0, 56.48)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.26, 24.7)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
